--- a/data/ToolsQAAuthentication.xlsx
+++ b/data/ToolsQAAuthentication.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD52E5-A632-41A9-A07B-EBB52937C755}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidCredentials" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Password</t>
   </si>
@@ -50,10 +51,13 @@
     <t>RHJEzDXX#ZShqBxY</t>
   </si>
   <si>
-    <t>titaniumuser2017</t>
-  </si>
-  <si>
     <t>ERROR: Invalid username. Lost your password?</t>
+  </si>
+  <si>
+    <t>titanium</t>
+  </si>
+  <si>
+    <t>&amp;&amp;!f5(#$@EDeln2k</t>
   </si>
 </sst>
 </file>
@@ -462,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +486,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -497,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
